--- a/jigsaw/CropTheImage/數字遊戲.xlsx
+++ b/jigsaw/CropTheImage/數字遊戲.xlsx
@@ -4,81 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="數字拼圖遊戲畫面" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="數字拼圖遊戲畫面 (2)" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="功能概略" sheetId="2" r:id="rId2"/>
+    <sheet name="數字拼圖遊戲畫面" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>限時賽</t>
+    <t>現在畫面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>計時賽</t>
+    <t>計劃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遊戲方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>個人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伺服器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內部儲存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限時排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計時排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間倒數功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間計時功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程式邏輯修改: 分隔圖片，位置分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿瀧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計時、倒數功能調查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thread</t>
+    <t>Stage設計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,6 +84,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDBEEF4"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -222,7 +176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="2085975"/>
+          <a:off x="2305050" y="2295525"/>
           <a:ext cx="3638550" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -275,7 +229,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="群組 11"/>
+        <xdr:cNvPr id="4" name="群組 3"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -393,7 +347,7 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="直線接點 8"/>
+          <xdr:cNvPr id="8" name="直線接點 7"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="3" idx="0"/>
             <a:endCxn id="3" idx="2"/>
@@ -430,7 +384,7 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="直線接點 9"/>
+          <xdr:cNvPr id="9" name="直線接點 8"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -464,7 +418,7 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="直線接點 10"/>
+          <xdr:cNvPr id="10" name="直線接點 9"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -514,12 +468,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="文字方塊 16"/>
+        <xdr:cNvPr id="11" name="文字方塊 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2667001" y="1219199"/>
+          <a:off x="2667001" y="1428749"/>
           <a:ext cx="352424" cy="361951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -580,12 +534,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="文字方塊 17"/>
+        <xdr:cNvPr id="12" name="文字方塊 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381376" y="1209674"/>
+          <a:off x="3381376" y="1419224"/>
           <a:ext cx="352424" cy="361951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -646,7 +600,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="群組 22"/>
+        <xdr:cNvPr id="13" name="群組 12"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -659,7 +613,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="矩形 12"/>
+          <xdr:cNvPr id="14" name="矩形 13"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -701,7 +655,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="加號 18"/>
+          <xdr:cNvPr id="15" name="加號 14"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -754,7 +708,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="群組 24"/>
+        <xdr:cNvPr id="16" name="群組 15"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -767,7 +721,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="矩形 13"/>
+          <xdr:cNvPr id="17" name="矩形 16"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -809,7 +763,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="加號 19"/>
+          <xdr:cNvPr id="18" name="加號 17"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -862,7 +816,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="群組 23"/>
+        <xdr:cNvPr id="19" name="群組 18"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -875,7 +829,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="矩形 14"/>
+          <xdr:cNvPr id="20" name="矩形 19"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -970,7 +924,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="群組 25"/>
+        <xdr:cNvPr id="22" name="群組 21"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -983,7 +937,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="矩形 15"/>
+          <xdr:cNvPr id="23" name="矩形 22"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1025,7 +979,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="減號 21"/>
+          <xdr:cNvPr id="24" name="減號 23"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1078,12 +1032,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvPr id="25" name="矩形 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="2028825"/>
+          <a:off x="2076450" y="2238375"/>
           <a:ext cx="4143375" cy="3143250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1126,73 +1080,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="直線圖說文字 2 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6734175" y="2476500"/>
-          <a:ext cx="1428750" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>拼圖區</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1206,12 +1093,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="矩形 29"/>
+        <xdr:cNvPr id="26" name="矩形 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2390775" y="895350"/>
+          <a:off x="2390775" y="1104900"/>
           <a:ext cx="2257425" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1254,96 +1141,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="直線圖說文字 2 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447675" y="885825"/>
-          <a:ext cx="1428750" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 25417"/>
-            <a:gd name="adj2" fmla="val 99667"/>
-            <a:gd name="adj3" fmla="val 25417"/>
-            <a:gd name="adj4" fmla="val 118000"/>
-            <a:gd name="adj5" fmla="val 72500"/>
-            <a:gd name="adj6" fmla="val 148000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>作答區</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>改用滾動方式作答</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1357,12 +1154,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="矩形 32"/>
+        <xdr:cNvPr id="27" name="矩形 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1123951"/>
+          <a:off x="4000500" y="1333501"/>
           <a:ext cx="542925" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1410,12 +1207,12 @@
     <xdr:ext cx="1409699" cy="1181098"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvPr id="28" name="矩形 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2581275" y="2847975"/>
+          <a:off x="2581275" y="3057525"/>
           <a:ext cx="1409699" cy="1181098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1554,12 +1351,12 @@
     <xdr:ext cx="1409699" cy="1181098"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvPr id="29" name="矩形 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314825" y="2266950"/>
+          <a:off x="4314825" y="2476500"/>
           <a:ext cx="1409699" cy="1181098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1703,7 +1500,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="矩形 35"/>
+        <xdr:cNvPr id="30" name="矩形 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1764,12 +1561,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="直線圖說文字 2 36"/>
+        <xdr:cNvPr id="31" name="直線圖說文字 2 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="838200"/>
+          <a:off x="7019925" y="1047750"/>
           <a:ext cx="1428750" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -1867,12 +1664,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvPr id="32" name="矩形 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743450" y="923925"/>
+          <a:off x="4743450" y="1133475"/>
           <a:ext cx="1209675" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1928,12 +1725,12 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="直線圖說文字 2 38"/>
+        <xdr:cNvPr id="33" name="直線圖說文字 2 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029449" y="1571625"/>
+          <a:off x="7029449" y="1781175"/>
           <a:ext cx="1685925" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -2002,7 +1799,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="向左箭號 39"/>
+        <xdr:cNvPr id="34" name="向左箭號 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2057,7 +1854,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvPr id="35" name="矩形 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2118,7 +1915,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="直線圖說文字 2 41"/>
+        <xdr:cNvPr id="36" name="直線圖說文字 2 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2192,7 +1989,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="上-下雙向箭號 42"/>
+        <xdr:cNvPr id="37" name="上-下雙向箭號 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2247,7 +2044,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="上-下雙向箭號 43"/>
+        <xdr:cNvPr id="38" name="上-下雙向箭號 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2281,6 +2078,6111 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="圖片 38" descr="Screenshot_2014-08-09-11-52-42.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2083655" y="5772150"/>
+          <a:ext cx="3126520" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="6943725"/>
+          <a:ext cx="1209675" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="直線圖說文字 2 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="6629400"/>
+          <a:ext cx="1714500" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25417"/>
+            <a:gd name="adj2" fmla="val 99667"/>
+            <a:gd name="adj3" fmla="val 25417"/>
+            <a:gd name="adj4" fmla="val 118000"/>
+            <a:gd name="adj5" fmla="val 41439"/>
+            <a:gd name="adj6" fmla="val 126889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>吋螢幕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>不好操作。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>增大操作區域，意圖不夠明確。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="直線圖說文字 2 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="6657975"/>
+          <a:ext cx="1428750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72083"/>
+            <a:gd name="adj2" fmla="val -3666"/>
+            <a:gd name="adj3" fmla="val 72083"/>
+            <a:gd name="adj4" fmla="val -19334"/>
+            <a:gd name="adj5" fmla="val 19167"/>
+            <a:gd name="adj6" fmla="val -47334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>改用長條圖，檢討擺放位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="6600825"/>
+          <a:ext cx="1209675" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="直線圖說文字 2 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="8791575"/>
+          <a:ext cx="1428750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72083"/>
+            <a:gd name="adj2" fmla="val -3666"/>
+            <a:gd name="adj3" fmla="val 72083"/>
+            <a:gd name="adj4" fmla="val -19334"/>
+            <a:gd name="adj5" fmla="val 9167"/>
+            <a:gd name="adj6" fmla="val -107334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>間隔不一，縮小較佳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="圖片 44" descr="Screenshot_2014-08-09-11-52-42.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7655780" y="5791200"/>
+          <a:ext cx="3126520" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="圓角矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="8229600"/>
+          <a:ext cx="2962275" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="直線圖說文字 2 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="5972175"/>
+          <a:ext cx="1428750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72083"/>
+            <a:gd name="adj2" fmla="val -3666"/>
+            <a:gd name="adj3" fmla="val 72083"/>
+            <a:gd name="adj4" fmla="val -19334"/>
+            <a:gd name="adj5" fmla="val 19167"/>
+            <a:gd name="adj6" fmla="val -47334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>刪除標題列，自製標題</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="5981700"/>
+          <a:ext cx="3238500" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="群組 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7639050" y="6017900"/>
+          <a:ext cx="3143249" cy="506730"/>
+          <a:chOff x="10906125" y="5605463"/>
+          <a:chExt cx="2819400" cy="633412"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="矩形 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10906125" y="5619750"/>
+            <a:ext cx="2819400" cy="619125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="51" name="群組 55"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10988244" y="5691182"/>
+            <a:ext cx="437965" cy="492918"/>
+            <a:chOff x="9245169" y="4814882"/>
+            <a:chExt cx="437965" cy="492918"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="橢圓 53"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9245169" y="4814882"/>
+              <a:ext cx="437965" cy="492918"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="向左箭號 53"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9336411" y="4964902"/>
+              <a:ext cx="249746" cy="195261"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="文字方塊 51"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11915775" y="5605463"/>
+            <a:ext cx="1447800" cy="573880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Secret</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="6600825"/>
+          <a:ext cx="3019425" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="8477249"/>
+          <a:ext cx="3076575" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線接點 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="8467725"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線接點 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="8486775"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線接點 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="8486775"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線接點 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+          <a:endCxn id="56" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="9901237"/>
+          <a:ext cx="3076575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線接點 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="10634662"/>
+          <a:ext cx="3076575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線接點 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="9177337"/>
+          <a:ext cx="3076575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="群組 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7839075" y="6915151"/>
+          <a:ext cx="1133475" cy="1104899"/>
+          <a:chOff x="7800975" y="6819901"/>
+          <a:chExt cx="1133475" cy="1104899"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="64" name="群組 77"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7800975" y="6819901"/>
+            <a:ext cx="371475" cy="1104899"/>
+            <a:chOff x="7800975" y="6857999"/>
+            <a:chExt cx="419100" cy="1047751"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="文字方塊 71"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7829550" y="6857999"/>
+              <a:ext cx="390525" cy="1047751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>9</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="78" name="直線接點 77"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7800975" y="7219950"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="79" name="直線接點 78"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7820025" y="7534275"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="矩形 79"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848601" y="6886575"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="矩形 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7865208" y="7679613"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="65" name="群組 78"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8181975" y="6819901"/>
+            <a:ext cx="371475" cy="1104899"/>
+            <a:chOff x="7800975" y="6857999"/>
+            <a:chExt cx="419100" cy="1047751"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="文字方塊 71"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7829550" y="6857999"/>
+              <a:ext cx="390525" cy="1047751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>9</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="73" name="直線接點 72"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7800975" y="7219950"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="74" name="直線接點 73"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7820025" y="7534275"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="矩形 74"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848601" y="6886575"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="矩形 75"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7875954" y="7679613"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="66" name="群組 84"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8562975" y="6819901"/>
+            <a:ext cx="371475" cy="1104899"/>
+            <a:chOff x="7800975" y="6857999"/>
+            <a:chExt cx="419100" cy="1047751"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="文字方塊 66"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7829550" y="6857999"/>
+              <a:ext cx="390525" cy="1047751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>9</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="68" name="直線接點 67"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7800975" y="7219950"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="69" name="直線接點 68"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7820025" y="7534275"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="矩形 69"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848601" y="6886575"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="71" name="矩形 70"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7886701" y="7679613"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矩形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9115425" y="7210426"/>
+          <a:ext cx="542925" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="文字方塊 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658099" y="6572250"/>
+          <a:ext cx="3133725" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>難易度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>☆☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>過關獎賞</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20 P</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124076" y="428625"/>
+          <a:ext cx="952500" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>圖片</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829176" y="428625"/>
+          <a:ext cx="952500" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>拼圖猜字</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515226" y="381000"/>
+          <a:ext cx="952500" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>積分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="1371600"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>圖片來源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>官方圖片</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>玩家圖片</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>存放位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>本機</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>網路空間</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>製作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>原圖</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>文字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>自動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>, #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>手動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>圖片分割</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>4X4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文字方塊 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="1352550"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>作答操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>滑動數字滾輪</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>作答次數限制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>次</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>時間限制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>依難易度，可秒數設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="1333500"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>難易度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>圖片難易度高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>獎賞積分高</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>拼圖完成度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>依拼圖完成度給予積分</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>個人積分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>每關設有挑戰積分，個人積分須達至該挑戰積分才能挑戰。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>挑戰失敗則失去積分，成功則獲得獎賞積分。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文字方塊 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="5086350"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>起始畫面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>遊戲名稱</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>遊戲說明按鈕</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關卡挑戰按鈕</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關於遊戲</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文字方塊 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="5114925"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>起始畫面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>遊戲說明</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>說明文字</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>說明圖片</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>積分說明</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文字方塊 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="5105400"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>起始畫面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關卡挑戰</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關卡選擇。難易度分類</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>個人積分顯示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>各關卡挑戰積分、獎賞積分顯示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>返回上一頁按鈕</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>廣告</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>開始按鈕</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文字方塊 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="5105400"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>起始畫面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>關卡挑戰</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>預覽</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>挑戰圖片完整圖案</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>有預覽時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關卡資訊</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>挑戰積分，難度，獎賞積分，限制時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>廣告</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>預覽時間倒數</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文字方塊 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="5095875"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>起始畫面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>關卡挑戰</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>作答區</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>返回關卡挑戰</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>拼圖區</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>挑戰時間倒數區</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>圖片資訊顯示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>難度，積分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>...)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文字方塊 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="5029200"/>
+          <a:ext cx="2171699" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關於遊戲</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>#Google</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t>Play</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>下載網址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>給予評分</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>開發團隊</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409699" cy="1181098"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="2847975"/>
+          <a:ext cx="1409699" cy="1181098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="15000" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="Bodoni MT Black" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409699" cy="1181098"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="2266950"/>
+          <a:ext cx="1409699" cy="1181098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="15000" b="1" cap="none" spc="0">
+            <a:ln w="17780" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="000000">
+                    <a:tint val="92000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="89000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="000000">
+                    <a:tint val="100000"/>
+                    <a:shade val="75000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="95000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="47000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="000000">
+                    <a:shade val="39000"/>
+                    <a:satMod val="150000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="Bodoni MT Black" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26255</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="圖片 44" descr="Screenshot_2014-08-09-11-52-42.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2083655" y="5772150"/>
+          <a:ext cx="3126520" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="6943725"/>
+          <a:ext cx="1209675" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="直線圖說文字 2 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="6629400"/>
+          <a:ext cx="1714500" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25417"/>
+            <a:gd name="adj2" fmla="val 99667"/>
+            <a:gd name="adj3" fmla="val 25417"/>
+            <a:gd name="adj4" fmla="val 118000"/>
+            <a:gd name="adj5" fmla="val 41439"/>
+            <a:gd name="adj6" fmla="val 126889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>吋螢幕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>不好操作。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>增大操作區域，意圖不夠明確。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="直線圖說文字 2 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="6657975"/>
+          <a:ext cx="1428750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72083"/>
+            <a:gd name="adj2" fmla="val -3666"/>
+            <a:gd name="adj3" fmla="val 72083"/>
+            <a:gd name="adj4" fmla="val -19334"/>
+            <a:gd name="adj5" fmla="val 19167"/>
+            <a:gd name="adj6" fmla="val -47334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>改用長條圖，檢討擺放位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="6600825"/>
+          <a:ext cx="1209675" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="直線圖說文字 2 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="8791575"/>
+          <a:ext cx="1428750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72083"/>
+            <a:gd name="adj2" fmla="val -3666"/>
+            <a:gd name="adj3" fmla="val 72083"/>
+            <a:gd name="adj4" fmla="val -19334"/>
+            <a:gd name="adj5" fmla="val 9167"/>
+            <a:gd name="adj6" fmla="val -107334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>間隔不一，縮小較佳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="圖片 48" descr="Screenshot_2014-08-09-11-52-42.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7655780" y="5791200"/>
+          <a:ext cx="3126520" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="圓角矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="8229600"/>
+          <a:ext cx="2962275" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="直線圖說文字 2 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="5972175"/>
+          <a:ext cx="1428750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72083"/>
+            <a:gd name="adj2" fmla="val -3666"/>
+            <a:gd name="adj3" fmla="val 72083"/>
+            <a:gd name="adj4" fmla="val -19334"/>
+            <a:gd name="adj5" fmla="val 19167"/>
+            <a:gd name="adj6" fmla="val -47334"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>刪除標題列，自製標題</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="5981700"/>
+          <a:ext cx="3238500" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>150500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28580</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="群組 57"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7639050" y="779150"/>
+          <a:ext cx="3143249" cy="506730"/>
+          <a:chOff x="10906125" y="5605463"/>
+          <a:chExt cx="2819400" cy="633412"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="矩形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10906125" y="5619750"/>
+            <a:ext cx="2819400" cy="619125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="56" name="群組 55"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10988244" y="5691182"/>
+            <a:ext cx="437965" cy="492918"/>
+            <a:chOff x="9245169" y="4814882"/>
+            <a:chExt cx="437965" cy="492918"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="橢圓 53"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9245169" y="4814882"/>
+              <a:ext cx="437965" cy="492918"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="向左箭號 54"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9336411" y="4964902"/>
+              <a:ext cx="249746" cy="195261"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="文字方塊 56"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11915775" y="5605463"/>
+            <a:ext cx="1447800" cy="573880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Secret</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="6600825"/>
+          <a:ext cx="3019425" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="8477249"/>
+          <a:ext cx="3076575" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線接點 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9229725" y="8467725"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線接點 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="8486775"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線接點 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="8486775"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線接點 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="1"/>
+          <a:endCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="9901237"/>
+          <a:ext cx="3076575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線接點 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="10634662"/>
+          <a:ext cx="3076575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線接點 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="9177337"/>
+          <a:ext cx="3076575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="94" name="群組 93"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7839075" y="1676401"/>
+          <a:ext cx="1133475" cy="1104899"/>
+          <a:chOff x="7800975" y="6819901"/>
+          <a:chExt cx="1133475" cy="1104899"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="群組 77"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7800975" y="6819901"/>
+            <a:ext cx="371475" cy="1104899"/>
+            <a:chOff x="7800975" y="6857999"/>
+            <a:chExt cx="419100" cy="1047751"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="文字方塊 71"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7829550" y="6857999"/>
+              <a:ext cx="390525" cy="1047751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>9</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="74" name="直線接點 73"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7800975" y="7219950"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="75" name="直線接點 74"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7820025" y="7534275"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="矩形 75"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848601" y="6886575"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="矩形 76"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7865208" y="7679613"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="79" name="群組 78"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8181975" y="6819901"/>
+            <a:ext cx="371475" cy="1104899"/>
+            <a:chOff x="7800975" y="6857999"/>
+            <a:chExt cx="419100" cy="1047751"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="文字方塊 79"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7829550" y="6857999"/>
+              <a:ext cx="390525" cy="1047751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>9</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="81" name="直線接點 80"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7800975" y="7219950"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="82" name="直線接點 81"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7820025" y="7534275"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="矩形 82"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848601" y="6886575"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="矩形 83"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7875954" y="7679613"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="85" name="群組 84"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8562975" y="6819901"/>
+            <a:ext cx="371475" cy="1104899"/>
+            <a:chOff x="7800975" y="6857999"/>
+            <a:chExt cx="419100" cy="1047751"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="文字方塊 85"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7829550" y="6857999"/>
+              <a:ext cx="390525" cy="1047751"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>9</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="87" name="直線接點 86"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7800975" y="7219950"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="88" name="直線接點 87"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7820025" y="7534275"/>
+              <a:ext cx="400050" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="89" name="矩形 88"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848601" y="6886575"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="90" name="矩形 89"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7886701" y="7679613"/>
+              <a:ext cx="304800" cy="152398"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DBEEF4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="31750"/>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="矩形 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9115425" y="7210426"/>
+          <a:ext cx="542925" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="文字方塊 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658099" y="6572250"/>
+          <a:ext cx="3133725" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>難易度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>☆☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>過關獎賞</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20 P</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2577,8 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2591,85 +8493,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:K12"/>
+  <dimension ref="C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="3:11">
-      <c r="C3" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
         <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11">
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11">
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E2:M2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="5:13">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/jigsaw/CropTheImage/數字遊戲.xlsx
+++ b/jigsaw/CropTheImage/數字遊戲.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="數字拼圖遊戲畫面 (2)" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="功能概略" sheetId="2" r:id="rId2"/>
     <sheet name="數字拼圖遊戲畫面" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="技術調查" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>現在畫面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,13 @@
   <si>
     <t>Stage設計</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flickr上取得圖案並顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hintdesk.com/android-show-images-from-flickr-with-imagegridview/</t>
   </si>
 </sst>
 </file>
@@ -8495,7 +8502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -8540,12 +8547,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jigsaw/CropTheImage/數字遊戲.xlsx
+++ b/jigsaw/CropTheImage/數字遊戲.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7830" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="數字拼圖遊戲畫面 (2)" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="功能概略" sheetId="2" r:id="rId2"/>
-    <sheet name="數字拼圖遊戲畫面" sheetId="1" r:id="rId3"/>
-    <sheet name="技術調查" sheetId="3" r:id="rId4"/>
+    <sheet name="起始選單畫面" sheetId="6" r:id="rId3"/>
+    <sheet name="關卡選擇畫面" sheetId="7" r:id="rId4"/>
+    <sheet name="數字拼圖遊戲畫面" sheetId="1" r:id="rId5"/>
+    <sheet name="技術調查" sheetId="3" r:id="rId6"/>
+    <sheet name="題庫設計" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>現在畫面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +39,54 @@
   </si>
   <si>
     <t>http://hintdesk.com/android-show-images-from-flickr-with-imagegridview/</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑戰點數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獎勵點數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5811,6 +5862,92 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1" descr="起始畫面.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="209550"/>
+          <a:ext cx="4572000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1" descr="關卡選擇.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="419100"/>
+          <a:ext cx="4572000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -8196,6 +8333,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>113700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="圖片 60" descr="遊戲畫面.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="6915150"/>
+          <a:ext cx="3337200" cy="5562000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8502,8 +8677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8522,10 +8697,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E2:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8545,12 +8752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8569,4 +8776,73 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="45.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jigsaw/CropTheImage/數字遊戲.xlsx
+++ b/jigsaw/CropTheImage/數字遊戲.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>現在畫面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,12 +88,44 @@
     <t>hard_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>800_800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>799_800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://farm6.staticflickr.com/5585/15132446177_2a5585b399_c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://farm4.staticflickr.com/3926/15347590602_e9d4868008_c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock_and_clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://farm4.staticflickr.com/3850/15347450332_7fd80aa452_c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +140,14 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,18 +167,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8780,10 +8828,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:D8"/>
+  <dimension ref="C3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8793,7 +8841,7 @@
     <col min="5" max="5" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:5">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -8801,7 +8849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:5">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -8809,15 +8857,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:5">
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:5">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -8825,7 +8874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:5">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -8833,7 +8882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:5">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -8841,8 +8890,49 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="3:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>